--- a/assets/BOM/FC_ESC_STM32F405RG_26x26.xlsx
+++ b/assets/BOM/FC_ESC_STM32F405RG_26x26.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="FC_ESC_STM32F405RG_26x26" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="kh-gift-hw" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="165">
   <si>
     <t xml:space="preserve">Reference</t>
   </si>
@@ -409,7 +409,7 @@
     <t xml:space="preserve">U1,U2,U7,U8</t>
   </si>
   <si>
-    <t xml:space="preserve">~</t>
+    <t xml:space="preserve">EFM8BB21</t>
   </si>
   <si>
     <t xml:space="preserve">Proj_footprint:QFN-20-1EP_3x3mm_P0.5mm_EP1.8x1.8mm</t>
@@ -424,7 +424,10 @@
     <t xml:space="preserve">Proj_footprint:SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.29x3mm</t>
   </si>
   <si>
-    <t xml:space="preserve">U4,U5,U9,U10,U29</t>
+    <t xml:space="preserve">U4,U5,U9,U29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD6288Q</t>
   </si>
   <si>
     <t xml:space="preserve">Proj_footprint:QFN-24-1EP_4x4mm_P0.5mm_EP2.15x2.15mm</t>
@@ -439,6 +442,12 @@
     <t xml:space="preserve">Package_SO:TSSOP-28-1EP_4.4x9.7mm_P0.65mm</t>
   </si>
   <si>
+    <t xml:space="preserve">U10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPU6000</t>
+  </si>
+  <si>
     <t xml:space="preserve">U11</t>
   </si>
   <si>
@@ -469,6 +478,9 @@
     <t xml:space="preserve">U14</t>
   </si>
   <si>
+    <t xml:space="preserve">INA186</t>
+  </si>
+  <si>
     <t xml:space="preserve">Package_TO_SOT_SMD:Texas_R-PDSO-G6</t>
   </si>
   <si>
@@ -482,6 +494,9 @@
   </si>
   <si>
     <t xml:space="preserve">U17,U18,U19,U20,U21,U22,U23,U24,U25,U26,U27,U28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIZ200DT</t>
   </si>
   <si>
     <t xml:space="preserve">Proj_footprint:SIZ200DT</t>
@@ -595,10 +610,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1412,24 +1427,24 @@
         <v>134</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>1</v>
@@ -1437,13 +1452,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>1</v>
@@ -1482,10 +1497,10 @@
         <v>148</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>1</v>
@@ -1493,13 +1508,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>1</v>
@@ -1507,43 +1522,57 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D67" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" s="0" t="n">
         <v>1</v>
       </c>
     </row>
